--- a/teaching/traditional_assets/database/data/switzerland/switzerland_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07239999999999999</v>
+        <v>0.05549999999999999</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.0644</v>
       </c>
       <c r="F2">
-        <v>0.1149</v>
+        <v>0.10555</v>
       </c>
       <c r="G2">
-        <v>0.1392502482975748</v>
+        <v>0.138592359064821</v>
       </c>
       <c r="H2">
-        <v>0.1376714370546036</v>
+        <v>0.1369060867697167</v>
       </c>
       <c r="I2">
-        <v>0.1307193208924679</v>
+        <v>0.1208497364054521</v>
       </c>
       <c r="J2">
-        <v>0.1235460287276988</v>
+        <v>0.111409141668983</v>
       </c>
       <c r="K2">
-        <v>924.295</v>
+        <v>1574.057</v>
       </c>
       <c r="L2">
-        <v>0.1098612766560343</v>
+        <v>0.174303172446479</v>
       </c>
       <c r="M2">
-        <v>2170.18266</v>
+        <v>1934.05664</v>
       </c>
       <c r="N2">
-        <v>0.04711541706400218</v>
+        <v>0.03495201810367542</v>
       </c>
       <c r="O2">
-        <v>2.347932921848544</v>
+        <v>1.228708134457647</v>
       </c>
       <c r="P2">
-        <v>1238.85966</v>
+        <v>1179.40064</v>
       </c>
       <c r="Q2">
-        <v>0.02689607222493794</v>
+        <v>0.02131397378350117</v>
       </c>
       <c r="R2">
-        <v>1.340329288809309</v>
+        <v>0.7492744163648456</v>
       </c>
       <c r="S2">
-        <v>931.3229999999999</v>
+        <v>754.6560000000001</v>
       </c>
       <c r="T2">
-        <v>0.4291449826624271</v>
+        <v>0.3901933296017639</v>
       </c>
       <c r="U2">
-        <v>45889.334</v>
+        <v>47423.205</v>
       </c>
       <c r="V2">
-        <v>0.9962733322177107</v>
+        <v>0.8570259450593498</v>
       </c>
       <c r="W2">
-        <v>0.02313664596273292</v>
+        <v>0.01418092909535452</v>
       </c>
       <c r="X2">
-        <v>0.04877301791859039</v>
+        <v>0.03627134402388305</v>
       </c>
       <c r="Y2">
-        <v>-0.02563637195585747</v>
+        <v>-0.02209041492852852</v>
       </c>
       <c r="Z2">
-        <v>1.496653171528968</v>
+        <v>1.293882489425543</v>
       </c>
       <c r="AA2">
-        <v>0.0167097413421212</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04776221733662046</v>
+        <v>0.03563687019347185</v>
       </c>
       <c r="AC2">
-        <v>-0.03185759837204365</v>
+        <v>-0.03658619366063418</v>
       </c>
       <c r="AD2">
-        <v>38447.49</v>
+        <v>42365.947</v>
       </c>
       <c r="AE2">
-        <v>862.645916449834</v>
+        <v>0.2899795450835388</v>
       </c>
       <c r="AF2">
-        <v>39310.13591644984</v>
+        <v>42366.23697954509</v>
       </c>
       <c r="AG2">
-        <v>-6579.19808355016</v>
+        <v>-5056.968020454915</v>
       </c>
       <c r="AH2">
-        <v>0.4604617359251529</v>
+        <v>0.43363219412103</v>
       </c>
       <c r="AI2">
-        <v>0.728627236509521</v>
+        <v>0.7441970397538323</v>
       </c>
       <c r="AJ2">
-        <v>-0.166638799747247</v>
+        <v>-0.1005808310720693</v>
       </c>
       <c r="AK2">
-        <v>-0.8161134510817513</v>
+        <v>-0.5319996645484653</v>
       </c>
       <c r="AL2">
-        <v>18.822</v>
+        <v>34.128</v>
       </c>
       <c r="AM2">
-        <v>16.192</v>
+        <v>29.563</v>
       </c>
       <c r="AN2">
-        <v>29.77335153666078</v>
+        <v>35.66007070409495</v>
       </c>
       <c r="AO2">
-        <v>57.06673042184677</v>
+        <v>31.97814111579934</v>
       </c>
       <c r="AP2">
-        <v>-5.094865162091565</v>
+        <v>-4.256527941126143</v>
       </c>
       <c r="AQ2">
-        <v>66.33584486166008</v>
+        <v>36.91607752934411</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Partners Group Holding AG (SWX:PGHN)</t>
+          <t>VZ Holding AG (SWX:VZN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,124 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.194</v>
+        <v>0.0795</v>
       </c>
       <c r="E3">
-        <v>0.169</v>
-      </c>
-      <c r="F3">
-        <v>0.143</v>
+        <v>0.0644</v>
       </c>
       <c r="G3">
-        <v>0.6414533323663789</v>
+        <v>0.4195298372513562</v>
       </c>
       <c r="H3">
-        <v>0.6414533323663789</v>
+        <v>0.4195298372513562</v>
       </c>
       <c r="I3">
-        <v>0.6473991611393091</v>
+        <v>0.4207353827606992</v>
       </c>
       <c r="J3">
-        <v>0.5576844064852943</v>
+        <v>0.3568573100495857</v>
       </c>
       <c r="K3">
-        <v>790.7</v>
+        <v>116</v>
       </c>
       <c r="L3">
-        <v>0.5734280948582203</v>
+        <v>0.3496081977094635</v>
       </c>
       <c r="M3">
-        <v>1245.7</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="N3">
-        <v>0.05118669975838661</v>
+        <v>0.01924574479919902</v>
       </c>
       <c r="O3">
-        <v>1.575439484001517</v>
+        <v>0.5965517241379309</v>
       </c>
       <c r="P3">
-        <v>599.9</v>
+        <v>42.3</v>
       </c>
       <c r="Q3">
-        <v>0.02465031804210976</v>
+        <v>0.01176437868505952</v>
       </c>
       <c r="R3">
-        <v>0.7586948273681547</v>
+        <v>0.3646551724137931</v>
       </c>
       <c r="S3">
-        <v>645.7999999999998</v>
+        <v>26.89999999999999</v>
       </c>
       <c r="T3">
-        <v>0.5184233764148671</v>
+        <v>0.3887283236994219</v>
       </c>
       <c r="U3">
-        <v>289.9</v>
+        <v>1573.3</v>
       </c>
       <c r="V3">
-        <v>0.01191219736690718</v>
+        <v>0.4375625764823673</v>
       </c>
       <c r="W3">
-        <v>0.4379153743907843</v>
+        <v>0.2216278181123424</v>
       </c>
       <c r="X3">
-        <v>0.04877301791859039</v>
+        <v>0.04047064229701354</v>
       </c>
       <c r="Y3">
-        <v>0.3891423564721939</v>
+        <v>0.1811571758153289</v>
       </c>
       <c r="Z3">
-        <v>0.7407839245239503</v>
+        <v>26.97560975609766</v>
       </c>
       <c r="AA3">
-        <v>0.4131236432819862</v>
+        <v>9.626443534508372</v>
       </c>
       <c r="AB3">
-        <v>0.04771185900719604</v>
+        <v>0.0358575898376351</v>
       </c>
       <c r="AC3">
-        <v>0.3654117842747902</v>
+        <v>9.590585944670737</v>
       </c>
       <c r="AD3">
-        <v>1013.8</v>
+        <v>850.3</v>
       </c>
       <c r="AE3">
-        <v>36.50648352503396</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1050.306483525034</v>
+        <v>850.3</v>
       </c>
       <c r="AG3">
-        <v>760.4064835250339</v>
+        <v>-723</v>
       </c>
       <c r="AH3">
-        <v>0.04137230184650541</v>
+        <v>0.1912548640320295</v>
       </c>
       <c r="AI3">
-        <v>0.3481748412533099</v>
+        <v>0.5894218771662276</v>
       </c>
       <c r="AJ3">
-        <v>0.03029893401075582</v>
+        <v>-0.2516883659402632</v>
       </c>
       <c r="AK3">
-        <v>0.2788736111200333</v>
+        <v>5.531752104055086</v>
       </c>
       <c r="AL3">
-        <v>4.41</v>
+        <v>2.66</v>
       </c>
       <c r="AM3">
-        <v>1.95</v>
+        <v>2.565</v>
       </c>
       <c r="AN3">
-        <v>1.118490732568402</v>
+        <v>5.827964359150102</v>
       </c>
       <c r="AO3">
-        <v>201.5873015873016</v>
+        <v>52.48120300751879</v>
       </c>
       <c r="AP3">
-        <v>0.8389303657601874</v>
+        <v>-4.955448937628512</v>
       </c>
       <c r="AQ3">
-        <v>455.8974358974359</v>
+        <v>54.42495126705653</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpine Select AG (SWX:ALPN)</t>
+          <t>Partners Group Holding AG (SWX:PGHN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,118 +862,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.143</v>
+        <v>0.219</v>
+      </c>
+      <c r="E4">
+        <v>0.156</v>
+      </c>
+      <c r="F4">
+        <v>0.133</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.6413362701908958</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6413362701908958</v>
       </c>
       <c r="I4">
-        <v>0.9015331467049081</v>
+        <v>0.6276309348996573</v>
       </c>
       <c r="J4">
-        <v>0.9015331467049081</v>
+        <v>0.5394534508759643</v>
       </c>
       <c r="K4">
-        <v>-6.23</v>
+        <v>862</v>
       </c>
       <c r="L4">
-        <v>-0.2651063829787234</v>
+        <v>0.5274106705824767</v>
       </c>
       <c r="M4">
-        <v>18.5621</v>
+        <v>1090.9</v>
       </c>
       <c r="N4">
-        <v>0.1221994733377222</v>
+        <v>0.03539309073920266</v>
       </c>
       <c r="O4">
-        <v>-2.979470304975923</v>
+        <v>1.26554524361949</v>
       </c>
       <c r="P4">
-        <v>3.1621</v>
+        <v>705.8</v>
       </c>
       <c r="Q4">
-        <v>0.02081698485845951</v>
+        <v>0.02289893064784053</v>
       </c>
       <c r="R4">
-        <v>-0.5075601926163724</v>
+        <v>0.8187935034802784</v>
       </c>
       <c r="S4">
-        <v>15.4</v>
+        <v>385.1000000000001</v>
       </c>
       <c r="T4">
-        <v>0.8296475075557184</v>
+        <v>0.3530112750939592</v>
       </c>
       <c r="U4">
-        <v>0.534</v>
+        <v>864.9</v>
       </c>
       <c r="V4">
-        <v>0.003515470704410797</v>
+        <v>0.02806076100498339</v>
       </c>
       <c r="W4">
-        <v>-0.03647540983606557</v>
+        <v>0.4383868178812999</v>
       </c>
       <c r="X4">
-        <v>0.04842134480841932</v>
+        <v>0.03589640030369626</v>
       </c>
       <c r="Y4">
-        <v>-0.0848967546444849</v>
+        <v>0.4024904175776036</v>
       </c>
       <c r="Z4">
-        <v>0.1288123980136954</v>
+        <v>0.607538472975987</v>
       </c>
       <c r="AA4">
-        <v>0.1161286465158919</v>
+        <v>0.32773872578681</v>
       </c>
       <c r="AB4">
-        <v>0.04772889987295425</v>
+        <v>0.03533707934601037</v>
       </c>
       <c r="AC4">
-        <v>0.06839974664293766</v>
+        <v>0.2924016464407996</v>
       </c>
       <c r="AD4">
-        <v>3.96</v>
+        <v>908</v>
       </c>
       <c r="AE4">
-        <v>0.3148552621732841</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.274855262173284</v>
+        <v>908</v>
       </c>
       <c r="AG4">
-        <v>3.740855262173285</v>
+        <v>43.10000000000002</v>
       </c>
       <c r="AH4">
-        <v>0.0273722377075171</v>
+        <v>0.02861609056299321</v>
       </c>
       <c r="AI4">
-        <v>0.02787194325214525</v>
+        <v>0.33179858218227</v>
       </c>
       <c r="AJ4">
-        <v>0.02403517544202583</v>
+        <v>0.001396381072718732</v>
       </c>
       <c r="AK4">
-        <v>0.0244754928631907</v>
+        <v>0.02302719452903779</v>
       </c>
       <c r="AL4">
-        <v>0.081</v>
+        <v>6.76</v>
       </c>
       <c r="AM4">
-        <v>0.081</v>
+        <v>2.33</v>
       </c>
       <c r="AN4">
-        <v>80.81632653061224</v>
+        <v>0.8750120458706755</v>
       </c>
       <c r="AO4">
-        <v>261.7283950617284</v>
+        <v>151.7455621301775</v>
       </c>
       <c r="AP4">
-        <v>76.34398494231193</v>
+        <v>0.04153416208923583</v>
       </c>
       <c r="AQ4">
-        <v>261.7283950617284</v>
+        <v>440.2575107296137</v>
       </c>
     </row>
     <row r="5">
@@ -996,28 +999,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.042</v>
+        <v>-0.0295</v>
       </c>
       <c r="E5">
-        <v>0.0423</v>
+        <v>-0.0246</v>
       </c>
       <c r="G5">
-        <v>0.8803418803418803</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="H5">
-        <v>0.8803418803418803</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="I5">
-        <v>0.8960113960113961</v>
+        <v>0.943298969072165</v>
       </c>
       <c r="J5">
-        <v>0.8960113960113961</v>
+        <v>0.9417354901179018</v>
       </c>
       <c r="K5">
-        <v>6.14</v>
+        <v>18.1</v>
       </c>
       <c r="L5">
-        <v>0.8746438746438746</v>
+        <v>0.9329896907216496</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1041,31 +1044,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.23</v>
+        <v>5.2</v>
       </c>
       <c r="V5">
-        <v>0.01251271617497457</v>
+        <v>0.02929577464788732</v>
       </c>
       <c r="W5">
-        <v>0.0681465038845727</v>
+        <v>0.182092555331992</v>
       </c>
       <c r="X5">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y5">
-        <v>0.02038428654795224</v>
+        <v>0.1468470591616882</v>
       </c>
       <c r="Z5">
-        <v>0.07635414400696106</v>
+        <v>0.1976163797494143</v>
       </c>
       <c r="AA5">
-        <v>0.06841418316293235</v>
+        <v>0.18610235823864</v>
       </c>
       <c r="AB5">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC5">
-        <v>0.02065196582631189</v>
+        <v>0.1508568620683363</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1077,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-1.23</v>
+        <v>-5.2</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1086,28 +1089,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.0126712681570001</v>
+        <v>-0.03017991874637261</v>
       </c>
       <c r="AK5">
-        <v>-0.01252928593256596</v>
+        <v>-0.04693140794223827</v>
       </c>
       <c r="AL5">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.019</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>331.0526315789474</v>
-      </c>
-      <c r="AP5">
-        <v>-0.1955484896661367</v>
-      </c>
-      <c r="AQ5">
-        <v>331.0526315789474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nebag ag (SWX:NBEN)</t>
+          <t>GAM Holding AG (SWX:GAM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1127,76 +1118,73 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.102</v>
+        <v>-0.19</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1260343730108212</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1260343730108212</v>
       </c>
       <c r="I6">
-        <v>0.8617200674536257</v>
+        <v>0.04710375556970083</v>
       </c>
       <c r="J6">
-        <v>0.8617200674536257</v>
+        <v>0.04710375556970083</v>
       </c>
       <c r="K6">
-        <v>-1.13</v>
+        <v>-363.1</v>
       </c>
       <c r="L6">
-        <v>-0.1905564924114671</v>
+        <v>-1.155633354551241</v>
       </c>
       <c r="M6">
-        <v>12.71456</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.1321679833679834</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>-11.25182300884956</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4.67456</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0485920997920998</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>-4.136778761061947</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="T6">
-        <v>0.6323459089421891</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>12.1</v>
+        <v>287.3</v>
       </c>
       <c r="V6">
-        <v>0.1257796257796258</v>
+        <v>0.7495434385598748</v>
       </c>
       <c r="W6">
-        <v>-0.01164948453608247</v>
+        <v>-0.4299585553582002</v>
       </c>
       <c r="X6">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y6">
-        <v>-0.05941170187270294</v>
+        <v>-0.4652040515285039</v>
       </c>
       <c r="Z6">
-        <v>0.0762210796915167</v>
+        <v>0.5352640545144803</v>
       </c>
       <c r="AA6">
-        <v>0.06568123393316196</v>
+        <v>0.02521294718909711</v>
       </c>
       <c r="AB6">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC6">
-        <v>0.01791901659654149</v>
+        <v>-0.01003254898120666</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1208,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-12.1</v>
+        <v>-287.3</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1217,22 +1205,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.1438763376932223</v>
+        <v>-2.992708333333333</v>
       </c>
       <c r="AK6">
-        <v>-0.1497524752475247</v>
+        <v>-1.468813905930471</v>
       </c>
       <c r="AL6">
-        <v>0.08599999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="AM6">
-        <v>0.08599999999999999</v>
+        <v>20.9</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>59.4186046511628</v>
+        <v>0.7081339712918661</v>
+      </c>
+      <c r="AP6">
+        <v>-9.450657894736842</v>
       </c>
       <c r="AQ6">
-        <v>59.4186046511628</v>
+        <v>0.7081339712918661</v>
       </c>
     </row>
     <row r="7">
@@ -1243,7 +1237,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Airesis SA (SWX:AIRE)</t>
+          <t>nebag ag (SWX:NBEN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1252,118 +1246,112 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0372</v>
+        <v>0.00052</v>
       </c>
       <c r="G7">
-        <v>0.04380553766902769</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03792659368963296</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03188604893635845</v>
+        <v>0.7084870848708487</v>
       </c>
       <c r="J7">
-        <v>0.03188604893635845</v>
+        <v>0.7084870848708487</v>
       </c>
       <c r="K7">
-        <v>-1.07</v>
+        <v>-6.26</v>
       </c>
       <c r="L7">
-        <v>-0.006889890534449453</v>
+        <v>-2.309963099630996</v>
       </c>
       <c r="M7">
-        <v>0.008999999999999999</v>
+        <v>11.59064</v>
       </c>
       <c r="N7">
-        <v>0.000119047619047619</v>
+        <v>0.1213679581151832</v>
       </c>
       <c r="O7">
-        <v>-0.008411214953271027</v>
+        <v>-1.851539936102237</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>4.820640000000001</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.05047790575916231</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0.7700702875399362</v>
       </c>
       <c r="S7">
-        <v>0.008999999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.5840919914689784</v>
       </c>
       <c r="U7">
-        <v>5.59</v>
+        <v>17.3</v>
       </c>
       <c r="V7">
-        <v>0.07394179894179895</v>
+        <v>0.181151832460733</v>
       </c>
       <c r="W7">
-        <v>-0.04196078431372549</v>
+        <v>-0.0673842841765339</v>
       </c>
       <c r="X7">
-        <v>0.07228008365923698</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y7">
-        <v>-0.1142408679729625</v>
+        <v>-0.1026297803468377</v>
       </c>
       <c r="Z7">
-        <v>2.026079861729518</v>
+        <v>0.03353960396039603</v>
       </c>
       <c r="AA7">
-        <v>0.06460368162007776</v>
+        <v>0.02376237623762376</v>
       </c>
       <c r="AB7">
-        <v>0.04713969293677516</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC7">
-        <v>0.0174639886833026</v>
+        <v>-0.01148311993268001</v>
       </c>
       <c r="AD7">
-        <v>57.1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>22.04048300091766</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>79.14048300091767</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>73.55048300091767</v>
+        <v>-17.3</v>
       </c>
       <c r="AH7">
-        <v>0.5114400670472791</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.6957987245427748</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.4931293651959889</v>
+        <v>-0.221227621483376</v>
       </c>
       <c r="AK7">
-        <v>0.680075400128297</v>
+        <v>-0.2566765578635015</v>
       </c>
       <c r="AL7">
-        <v>3.09</v>
+        <v>0.283</v>
       </c>
       <c r="AM7">
-        <v>3.015</v>
-      </c>
-      <c r="AN7">
-        <v>4.170927684441198</v>
+        <v>0.283</v>
       </c>
       <c r="AO7">
-        <v>0.7831715210355987</v>
-      </c>
-      <c r="AP7">
-        <v>5.372569978153225</v>
+        <v>6.784452296819788</v>
       </c>
       <c r="AQ7">
-        <v>0.8026533996683251</v>
+        <v>6.784452296819788</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1362,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AP Alternative Portfolio AG (BRSE:APN)</t>
+          <t>Bellevue Group AG (SWX:BBN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1382,98 +1370,101 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.0919</v>
+      </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.02038834951456311</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6537717601547388</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6537717601547388</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="L8">
-        <v>0.5764023210831721</v>
+        <v>0.02559576345984113</v>
       </c>
       <c r="M8">
-        <v>28.374</v>
+        <v>67.8</v>
       </c>
       <c r="N8">
-        <v>0.4036130867709815</v>
+        <v>0.1454311454311454</v>
       </c>
       <c r="O8">
-        <v>9.521476510067114</v>
+        <v>23.37931034482759</v>
       </c>
       <c r="P8">
-        <v>14.774</v>
+        <v>56.9</v>
       </c>
       <c r="Q8">
-        <v>0.2101564722617354</v>
+        <v>0.122050622050622</v>
       </c>
       <c r="R8">
-        <v>4.957718120805369</v>
+        <v>19.62068965517241</v>
       </c>
       <c r="S8">
-        <v>13.6</v>
+        <v>10.9</v>
       </c>
       <c r="T8">
-        <v>0.4793120462395151</v>
+        <v>0.1607669616519174</v>
       </c>
       <c r="U8">
-        <v>18.7</v>
+        <v>57.6</v>
       </c>
       <c r="V8">
-        <v>0.2660028449502134</v>
+        <v>0.1235521235521236</v>
       </c>
       <c r="W8">
-        <v>0.02313664596273292</v>
+        <v>0.01418092909535452</v>
       </c>
       <c r="X8">
-        <v>0.04776221733662046</v>
+        <v>0.03554881916697308</v>
       </c>
       <c r="Y8">
-        <v>-0.02462557137388754</v>
+        <v>-0.02136789007161856</v>
       </c>
       <c r="Z8">
-        <v>0.04747474747474747</v>
+        <v>1.170454545454545</v>
       </c>
       <c r="AA8">
-        <v>0.0310376492194674</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04776221733662046</v>
+        <v>0.03528883644444107</v>
       </c>
       <c r="AC8">
-        <v>-0.01672456811715306</v>
+        <v>-0.03528883644444107</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AG8">
-        <v>-18.7</v>
+        <v>-51.2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.01354210749047821</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.03945745992601726</v>
       </c>
       <c r="AJ8">
-        <v>-0.3624031007751938</v>
+        <v>-0.1233734939759036</v>
       </c>
       <c r="AK8">
-        <v>-0.2370088719898606</v>
+        <v>-0.4894837476099426</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1490,7 +1481,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bellevue Group AG (SWX:BBN)</t>
+          <t>Banque Profil de Gestion SA (SWX:BPDG)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1499,115 +1490,103 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.176</v>
-      </c>
-      <c r="E9">
-        <v>0.269</v>
+        <v>0.068</v>
       </c>
       <c r="G9">
-        <v>0.02223247232472325</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007775814206762446</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.007775814206762446</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23.2</v>
+        <v>-0.743</v>
       </c>
       <c r="L9">
-        <v>0.2140221402214022</v>
+        <v>-0.04824675324675325</v>
       </c>
       <c r="M9">
-        <v>31.042</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.09398122918558886</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>1.338017241379311</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>15.142</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.04584317287314562</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.6526724137931035</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>15.9</v>
-      </c>
-      <c r="T9">
-        <v>0.5122092648669545</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>77.5</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.2346351801392673</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.1352769679300292</v>
+        <v>-0.01281034482758621</v>
       </c>
       <c r="X9">
-        <v>0.05014725476310114</v>
+        <v>0.03627134402388305</v>
       </c>
       <c r="Y9">
-        <v>0.08512971316692802</v>
+        <v>-0.04908168885146925</v>
       </c>
       <c r="Z9">
-        <v>3.645473198184697</v>
+        <v>0.2608842961206166</v>
       </c>
       <c r="AA9">
-        <v>0.0283465222848163</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04764972182400488</v>
+        <v>0.03563687019347185</v>
       </c>
       <c r="AC9">
-        <v>-0.01930319953918858</v>
+        <v>-0.03563687019347185</v>
       </c>
       <c r="AD9">
-        <v>25</v>
+        <v>1.82</v>
       </c>
       <c r="AE9">
-        <v>8.635508699934753</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>33.63550869993475</v>
+        <v>1.82</v>
       </c>
       <c r="AG9">
-        <v>-43.86449130006525</v>
+        <v>1.82</v>
       </c>
       <c r="AH9">
-        <v>0.09242161837983022</v>
+        <v>0.04436860068259386</v>
       </c>
       <c r="AI9">
-        <v>0.1412452468074282</v>
+        <v>0.02987524622455679</v>
       </c>
       <c r="AJ9">
-        <v>-0.1531391533792585</v>
+        <v>0.04436860068259386</v>
       </c>
       <c r="AK9">
-        <v>-0.2730684619799947</v>
+        <v>0.02987524622455679</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>9.72762645914397</v>
-      </c>
-      <c r="AP9">
-        <v>-17.06789544749621</v>
       </c>
     </row>
     <row r="10">
@@ -1618,7 +1597,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Varia Europe Properties AG (BRSE:VARE)</t>
+          <t>Vontobel Holding AG (SWX:VONN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1626,6 +1605,12 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0571</v>
+      </c>
+      <c r="E10">
+        <v>0.09369999999999999</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1633,91 +1618,91 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6765578635014836</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6235950004495998</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.365</v>
+        <v>261.8</v>
       </c>
       <c r="L10">
-        <v>0.5415430267062314</v>
+        <v>0.1968865157554336</v>
       </c>
       <c r="M10">
-        <v>2.337</v>
+        <v>207.9</v>
       </c>
       <c r="N10">
-        <v>0.04477011494252874</v>
+        <v>0.04673485444531864</v>
       </c>
       <c r="O10">
-        <v>6.402739726027398</v>
+        <v>0.7941176470588234</v>
       </c>
       <c r="P10">
-        <v>2.337</v>
+        <v>133.7</v>
       </c>
       <c r="Q10">
-        <v>0.04477011494252874</v>
+        <v>0.03005507474429583</v>
       </c>
       <c r="R10">
-        <v>6.402739726027398</v>
+        <v>0.5106951871657753</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>74.19999999999999</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.3569023569023569</v>
       </c>
       <c r="U10">
-        <v>1.14</v>
+        <v>8039.9</v>
       </c>
       <c r="V10">
-        <v>0.02183908045977011</v>
+        <v>1.807328312914465</v>
       </c>
       <c r="W10">
-        <v>0.02085714285714286</v>
+        <v>0.147559463420133</v>
       </c>
       <c r="X10">
-        <v>0.04776221733662046</v>
+        <v>0.0511742939258143</v>
       </c>
       <c r="Y10">
-        <v>-0.02690507447947761</v>
+        <v>0.09638516949431872</v>
       </c>
       <c r="Z10">
-        <v>0.03851648665638037</v>
+        <v>-0.3462489909642476</v>
       </c>
       <c r="AA10">
-        <v>0.02401868851380252</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.04776221733662046</v>
+        <v>0.03658619366063418</v>
       </c>
       <c r="AC10">
-        <v>-0.02374352882281794</v>
+        <v>-0.03658619366063418</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3207</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>3207</v>
       </c>
       <c r="AG10">
-        <v>-1.14</v>
+        <v>-4832.9</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.4189145059107831</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.6337318446793795</v>
       </c>
       <c r="AJ10">
-        <v>-0.02232667450058754</v>
+        <v>12.5725806451613</v>
       </c>
       <c r="AK10">
-        <v>-0.06455266138165344</v>
+        <v>1.622105121836611</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1734,7 +1719,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAM Holding AG (SWX:GAM)</t>
+          <t>EFG International AG (SWX:EFGN)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1743,118 +1728,109 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.186</v>
+        <v>0.09820000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-0.0332</v>
       </c>
       <c r="G11">
-        <v>0.337238920020377</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.337238920020377</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.06621815002141634</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06621815002141634</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-992.1</v>
+        <v>103</v>
       </c>
       <c r="L11">
-        <v>-2.526999490575649</v>
+        <v>0.0836582196231319</v>
       </c>
       <c r="M11">
-        <v>1.54</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N11">
-        <v>0.00341842397336293</v>
+        <v>0.04330112300861844</v>
       </c>
       <c r="O11">
-        <v>-0.001552262876726137</v>
+        <v>0.8048543689320389</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>46</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.0240271611386785</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="S11">
-        <v>1.54</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.4451145958986731</v>
       </c>
       <c r="U11">
-        <v>257.5</v>
+        <v>12363.5</v>
       </c>
       <c r="V11">
-        <v>0.5715871254162043</v>
+        <v>6.45782188560982</v>
       </c>
       <c r="W11">
-        <v>-0.543467543138866</v>
+        <v>0.06249241596893581</v>
       </c>
       <c r="X11">
-        <v>0.05089786648460119</v>
+        <v>0.06633917398904432</v>
       </c>
       <c r="Y11">
-        <v>-0.5943654096234672</v>
+        <v>-0.003846758020108511</v>
       </c>
       <c r="Z11">
-        <v>0.2523438262276569</v>
+        <v>-0.1296696121075525</v>
       </c>
       <c r="AA11">
-        <v>0.0167097413421212</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.04856733971416485</v>
+        <v>0.03711642294487065</v>
       </c>
       <c r="AC11">
-        <v>-0.03185759837204365</v>
+        <v>-0.03711642294487065</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2694.2</v>
       </c>
       <c r="AE11">
-        <v>60.31377150795973</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>60.31377150795973</v>
+        <v>2694.2</v>
       </c>
       <c r="AG11">
-        <v>-197.1862284920403</v>
+        <v>-9669.299999999999</v>
       </c>
       <c r="AH11">
-        <v>0.1180738947775606</v>
+        <v>0.5845900145377221</v>
       </c>
       <c r="AI11">
-        <v>0.06665876825398113</v>
+        <v>0.6008340581164558</v>
       </c>
       <c r="AJ11">
-        <v>-0.7784267997677505</v>
+        <v>1.246879352143189</v>
       </c>
       <c r="AK11">
-        <v>-0.3046223287242631</v>
+        <v>1.227161966647207</v>
       </c>
       <c r="AL11">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>5.64</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>4.9822695035461</v>
-      </c>
-      <c r="AP11">
-        <v>-3.229384678873899</v>
-      </c>
-      <c r="AQ11">
-        <v>4.9822695035461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1865,7 +1841,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vontobel Holding AG (SWX:VONN)</t>
+          <t>Julius Bär Gruppe AG (SWX:BAER)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1874,10 +1850,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.07629999999999999</v>
+        <v>0.0539</v>
       </c>
       <c r="E12">
-        <v>0.127</v>
+        <v>0.22</v>
+      </c>
+      <c r="F12">
+        <v>0.0781</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1886,103 +1865,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.0012461762480328</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.001085527376279032</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>223.1</v>
+        <v>646.8</v>
       </c>
       <c r="L12">
-        <v>0.1814558763725092</v>
+        <v>0.1732979664014146</v>
       </c>
       <c r="M12">
-        <v>184.4</v>
+        <v>356.9</v>
       </c>
       <c r="N12">
-        <v>0.04589690619010877</v>
+        <v>0.02878457940156464</v>
       </c>
       <c r="O12">
-        <v>0.8265351860152399</v>
+        <v>0.5517934446505876</v>
       </c>
       <c r="P12">
-        <v>121.2</v>
+        <v>175.2</v>
       </c>
       <c r="Q12">
-        <v>0.03016651317918212</v>
+        <v>0.01413017178804742</v>
       </c>
       <c r="R12">
-        <v>0.5432541461228149</v>
+        <v>0.2708719851576994</v>
       </c>
       <c r="S12">
-        <v>63.2</v>
+        <v>181.7</v>
       </c>
       <c r="T12">
-        <v>0.3427331887201736</v>
+        <v>0.5091061922107033</v>
       </c>
       <c r="U12">
-        <v>7615</v>
+        <v>23916.6</v>
       </c>
       <c r="V12">
-        <v>1.895363018642507</v>
+        <v>1.928913622066295</v>
       </c>
       <c r="W12">
-        <v>0.1320352725335858</v>
+        <v>0.1038502296008477</v>
       </c>
       <c r="X12">
-        <v>0.06038684900412246</v>
+        <v>0.07666536896542875</v>
       </c>
       <c r="Y12">
-        <v>0.07164842352946336</v>
+        <v>0.027184860635419</v>
       </c>
       <c r="Z12">
-        <v>-0.3348914267946057</v>
+        <v>0.4858373903308948</v>
       </c>
       <c r="AA12">
-        <v>0.0003635338118666898</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04733590540680009</v>
+        <v>0.03733256832410791</v>
       </c>
       <c r="AC12">
-        <v>-0.0469723715949334</v>
+        <v>-0.03733256832410791</v>
       </c>
       <c r="AD12">
-        <v>2000.5</v>
+        <v>23243.3</v>
       </c>
       <c r="AE12">
-        <v>165.1608684847816</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>2165.660868484782</v>
+        <v>23243.3</v>
       </c>
       <c r="AG12">
-        <v>-5449.339131515218</v>
+        <v>-673.2999999999993</v>
       </c>
       <c r="AH12">
-        <v>0.3502400902270923</v>
+        <v>0.6521268268321628</v>
       </c>
       <c r="AI12">
-        <v>0.5496795295001536</v>
+        <v>0.7777658801995671</v>
       </c>
       <c r="AJ12">
-        <v>3.806363637006586</v>
+        <v>-0.05742087892407269</v>
       </c>
       <c r="AK12">
-        <v>1.482757233538671</v>
+        <v>-0.1128164742547878</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>63.50793650793651</v>
-      </c>
-      <c r="AP12">
-        <v>-172.9948930639752</v>
       </c>
     </row>
     <row r="13">
@@ -1993,7 +1966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Banque Profil de Gestion SA (SWX:BPDG)</t>
+          <t>Leonteq AG (SWX:LEON)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2002,10 +1975,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0667</v>
+        <v>0.0114</v>
+      </c>
+      <c r="E13">
+        <v>-0.127</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.05141490633718613</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2017,82 +1993,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-1.3</v>
+        <v>40.1</v>
       </c>
       <c r="L13">
-        <v>-0.07692307692307693</v>
+        <v>0.159824631327222</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>19.8</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.02692778457772338</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4937655860349127</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>4.9</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.006663946688426493</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.1221945137157107</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>14.9</v>
+      </c>
+      <c r="T13">
+        <v>0.7525252525252525</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.345437236502108</v>
       </c>
       <c r="W13">
-        <v>-0.02166666666666667</v>
+        <v>0.06199752628324057</v>
       </c>
       <c r="X13">
-        <v>0.04850220656246432</v>
+        <v>0.3769861533204265</v>
       </c>
       <c r="Y13">
-        <v>-0.07016887322913098</v>
+        <v>-0.3149886270371859</v>
       </c>
       <c r="Z13">
-        <v>0.2704865556978233</v>
+        <v>0.02913342854820543</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04797105958775905</v>
+        <v>0.03825154871824491</v>
       </c>
       <c r="AC13">
-        <v>-0.04797105958775905</v>
+        <v>-0.03825154871824491</v>
       </c>
       <c r="AD13">
-        <v>1.03</v>
+        <v>11372.7</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.03</v>
+        <v>11372.7</v>
       </c>
       <c r="AG13">
-        <v>1.03</v>
+        <v>11118.7</v>
       </c>
       <c r="AH13">
-        <v>0.03062741599762117</v>
+        <v>0.9392715559960357</v>
       </c>
       <c r="AI13">
-        <v>0.01741924572974801</v>
+        <v>0.9423457761942247</v>
       </c>
       <c r="AJ13">
-        <v>0.03062741599762117</v>
+        <v>0.9379703053821495</v>
       </c>
       <c r="AK13">
-        <v>0.01741924572974801</v>
+        <v>0.9411062677218672</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2109,7 +2088,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Julius Bär Gruppe AG (SWX:BAER)</t>
+          <t>Alpine Select AG (SWX:ALPN)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2117,119 +2096,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.06849999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.203</v>
-      </c>
-      <c r="F14">
-        <v>0.0868</v>
-      </c>
       <c r="G14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14">
-        <v>0.003693333338960793</v>
+        <v>2.358876592998462</v>
       </c>
       <c r="J14">
-        <v>0.003047855485457936</v>
+        <v>2.358876592998462</v>
       </c>
       <c r="K14">
-        <v>650.4</v>
+        <v>-4.02</v>
       </c>
       <c r="L14">
-        <v>0.1936232919532017</v>
+        <v>1.878504672897196</v>
       </c>
       <c r="M14">
-        <v>448</v>
+        <v>26.78</v>
       </c>
       <c r="N14">
-        <v>0.03985516916206286</v>
+        <v>0.1867503486750349</v>
       </c>
       <c r="O14">
-        <v>0.6888068880688807</v>
+        <v>-6.661691542288558</v>
       </c>
       <c r="P14">
-        <v>344</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.0306030763208697</v>
+        <v>0.06820083682008367</v>
       </c>
       <c r="R14">
-        <v>0.5289052890528906</v>
+        <v>-2.432835820895523</v>
       </c>
       <c r="S14">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="T14">
-        <v>0.2321428571428572</v>
+        <v>0.6348020911127707</v>
       </c>
       <c r="U14">
-        <v>23615.6</v>
+        <v>14.3</v>
       </c>
       <c r="V14">
-        <v>2.100901189427705</v>
+        <v>0.09972105997210599</v>
       </c>
       <c r="W14">
-        <v>0.1116298228751888</v>
+        <v>-0.02696177062374245</v>
       </c>
       <c r="X14">
-        <v>0.1006834810316725</v>
+        <v>0.03529017644618277</v>
       </c>
       <c r="Y14">
-        <v>0.01094634184351632</v>
+        <v>-0.06225194706992522</v>
       </c>
       <c r="Z14">
-        <v>0.4914436185550095</v>
+        <v>-0.01400377111327327</v>
       </c>
       <c r="AA14">
-        <v>0.001497849128606183</v>
+        <v>-0.03303316789280833</v>
       </c>
       <c r="AB14">
-        <v>0.05032903741121134</v>
+        <v>0.03525195488764556</v>
       </c>
       <c r="AC14">
-        <v>-0.04883118828260516</v>
+        <v>-0.06828512278045389</v>
       </c>
       <c r="AD14">
-        <v>25069.6</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>329.468619905484</v>
+        <v>0.2899795450835388</v>
       </c>
       <c r="AF14">
-        <v>25399.06861990548</v>
+        <v>0.2899795450835388</v>
       </c>
       <c r="AG14">
-        <v>1783.468619905485</v>
+        <v>-14.01002045491646</v>
       </c>
       <c r="AH14">
-        <v>0.6932103988808158</v>
+        <v>0.002018091630339165</v>
       </c>
       <c r="AI14">
-        <v>0.8028313081505398</v>
+        <v>0.002127665922699887</v>
       </c>
       <c r="AJ14">
-        <v>0.1369353140268563</v>
+        <v>-0.1082774763870716</v>
       </c>
       <c r="AK14">
-        <v>0.2223424628218597</v>
+        <v>-0.114845666071604</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="AN14">
-        <v>320.1736909323116</v>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>-48</v>
       </c>
       <c r="AP14">
-        <v>22.77737701028716</v>
+        <v>-280.2004090983293</v>
+      </c>
+      <c r="AQ14">
+        <v>-48</v>
       </c>
     </row>
     <row r="15">
@@ -2240,7 +2216,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EFG International AG (SWX:EFGN)</t>
+          <t>New Value AG (SWX:NEWN)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2248,116 +2224,92 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D15">
-        <v>0.106</v>
-      </c>
-      <c r="E15">
-        <v>0.211</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.008086338673560017</v>
-      </c>
-      <c r="J15">
-        <v>0.006341391907160224</v>
-      </c>
       <c r="K15">
-        <v>56.8</v>
-      </c>
-      <c r="L15">
-        <v>0.04933553374446278</v>
+        <v>-1.52</v>
       </c>
       <c r="M15">
-        <v>133.6</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.06913682467398055</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>2.352112676056338</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>88.90000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.04600496791554544</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>1.565140845070423</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>44.70000000000002</v>
-      </c>
-      <c r="T15">
-        <v>0.3345808383233534</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>13100.3</v>
+        <v>0.325</v>
       </c>
       <c r="V15">
-        <v>6.779290002069964</v>
+        <v>0.2138157894736842</v>
       </c>
       <c r="W15">
-        <v>0.03357370847617921</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>0.07338608862704454</v>
+        <v>0.03999886810723286</v>
       </c>
       <c r="Y15">
-        <v>-0.03981238015086533</v>
+        <v>-1.039998868107233</v>
       </c>
       <c r="Z15">
-        <v>-0.1245180507838904</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.0007896177595363282</v>
+        <v>-0.222972972972973</v>
       </c>
       <c r="AB15">
-        <v>0.0496967734973708</v>
+        <v>0.03743741529994259</v>
       </c>
       <c r="AC15">
-        <v>-0.05048639125690713</v>
+        <v>-0.2604103882729156</v>
       </c>
       <c r="AD15">
-        <v>1957.2</v>
+        <v>0.327</v>
       </c>
       <c r="AE15">
-        <v>156.9509914256518</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>2114.150991425652</v>
+        <v>0.327</v>
       </c>
       <c r="AG15">
-        <v>-10986.14900857435</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="AH15">
-        <v>0.522457518984781</v>
+        <v>0.1770438548998376</v>
       </c>
       <c r="AI15">
-        <v>0.5556315958312816</v>
+        <v>0.7108695652173913</v>
       </c>
       <c r="AJ15">
-        <v>1.213436444744594</v>
+        <v>0.001314060446780553</v>
       </c>
       <c r="AK15">
-        <v>1.181897419713918</v>
+        <v>0.01481481481481483</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>48.08845208845209</v>
-      </c>
-      <c r="AP15">
-        <v>-269.9299510706228</v>
+        <v>0.04</v>
+      </c>
+      <c r="AO15">
+        <v>-8.25</v>
+      </c>
+      <c r="AQ15">
+        <v>-8.25</v>
       </c>
     </row>
     <row r="16">
@@ -2368,7 +2320,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Leonteq AG (SWX:LEON)</t>
+          <t>Airesis SA (SWX:AIRE)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2377,37 +2329,34 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.105</v>
-      </c>
-      <c r="E16">
-        <v>0.131</v>
+        <v>0.0206</v>
       </c>
       <c r="G16">
-        <v>0.03567335243553009</v>
+        <v>-0.07275700934579438</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0.07289719626168223</v>
       </c>
       <c r="I16">
-        <v>-0.003934835056954383</v>
+        <v>-0.220404984423676</v>
       </c>
       <c r="J16">
-        <v>-0.003851075994923308</v>
+        <v>-0.220404984423676</v>
       </c>
       <c r="K16">
-        <v>83.59999999999999</v>
+        <v>-25.6</v>
       </c>
       <c r="L16">
-        <v>0.2994269340974212</v>
+        <v>-0.1993769470404984</v>
       </c>
       <c r="M16">
-        <v>0.769</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.001205140260147312</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.009198564593301437</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2416,76 +2365,79 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.769</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.04322580645161291</v>
       </c>
       <c r="W16">
-        <v>0.1909111669330897</v>
+        <v>-0.9660377358490566</v>
       </c>
       <c r="X16">
-        <v>0.3421011391786202</v>
+        <v>0.06443252219794655</v>
       </c>
       <c r="Y16">
-        <v>-0.1511899722455305</v>
+        <v>-1.030470258047003</v>
       </c>
       <c r="Z16">
-        <v>0.03687710597443368</v>
+        <v>1.820243833286079</v>
       </c>
       <c r="AA16">
-        <v>-0.0001420165375803844</v>
+        <v>-0.4011908137227106</v>
       </c>
       <c r="AB16">
-        <v>0.05119209719637129</v>
+        <v>0.03706699335839254</v>
       </c>
       <c r="AC16">
-        <v>-0.05133411373395167</v>
+        <v>-0.4382578070811031</v>
       </c>
       <c r="AD16">
-        <v>7965.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="AE16">
-        <v>53.89302973950831</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>8019.193029739508</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="AG16">
-        <v>8019.193029739508</v>
+        <v>79.22</v>
       </c>
       <c r="AH16">
-        <v>0.9262933577726893</v>
+        <v>0.5691452397498263</v>
       </c>
       <c r="AI16">
-        <v>0.9253634294673047</v>
+        <v>0.9817789498921122</v>
       </c>
       <c r="AJ16">
-        <v>0.9262933577726893</v>
+        <v>0.5609687013170939</v>
       </c>
       <c r="AK16">
-        <v>0.9253634294673047</v>
+        <v>0.9811741392122864</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AN16">
-        <v>822.861570247934</v>
+        <v>-3.15</v>
+      </c>
+      <c r="AO16">
+        <v>-8.372781065088757</v>
       </c>
       <c r="AP16">
-        <v>828.4290319978832</v>
+        <v>-3.046923076923077</v>
+      </c>
+      <c r="AQ16">
+        <v>-8.473053892215569</v>
       </c>
     </row>
     <row r="17">
@@ -2511,67 +2463,67 @@
         <v>-0</v>
       </c>
       <c r="I17">
-        <v>2.402666666666667</v>
+        <v>1.061971830985916</v>
       </c>
       <c r="J17">
-        <v>2.402666666666667</v>
+        <v>1.061971830985916</v>
       </c>
       <c r="K17">
-        <v>-9.02</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="L17">
-        <v>2.405333333333333</v>
+        <v>1.061971830985916</v>
       </c>
       <c r="M17">
-        <v>5.535</v>
+        <v>0.286</v>
       </c>
       <c r="N17">
-        <v>0.054</v>
+        <v>0.005641025641025641</v>
       </c>
       <c r="O17">
-        <v>-0.6136363636363636</v>
+        <v>-0.003793103448275862</v>
       </c>
       <c r="P17">
-        <v>5.07</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>0.04946341463414634</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>-0.5620842572062085</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.4649999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="T17">
-        <v>0.08401084010840106</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>29.1</v>
+        <v>26.3</v>
       </c>
       <c r="V17">
-        <v>0.2839024390243903</v>
+        <v>0.5187376725838264</v>
       </c>
       <c r="W17">
-        <v>-0.04205128205128205</v>
+        <v>-0.3764353469795307</v>
       </c>
       <c r="X17">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y17">
-        <v>-0.08981349938790251</v>
+        <v>-0.4116808431498345</v>
       </c>
       <c r="Z17">
-        <v>-0.02167630057803468</v>
+        <v>-0.4147196261682243</v>
       </c>
       <c r="AA17">
-        <v>-0.05208092485549133</v>
+        <v>-0.4404205607476636</v>
       </c>
       <c r="AB17">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC17">
-        <v>-0.09984314219211179</v>
+        <v>-0.4756660569179673</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2583,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>-29.1</v>
+        <v>-26.3</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2592,272 +2544,16 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>-0.3964577656675749</v>
+        <v>-1.077868852459016</v>
       </c>
       <c r="AK17">
-        <v>-0.1699766355140187</v>
+        <v>-0.2667342799188641</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>New Value AG (SWX:NEWN)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>-0.487</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>-9.083333333333334</v>
-      </c>
-      <c r="J18">
-        <v>-9.083333333333334</v>
-      </c>
-      <c r="K18">
-        <v>-2.74</v>
-      </c>
-      <c r="L18">
-        <v>-57.08333333333334</v>
-      </c>
-      <c r="M18">
-        <v>-0</v>
-      </c>
-      <c r="N18">
-        <v>-0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>-0</v>
-      </c>
-      <c r="Q18">
-        <v>-0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0.04</v>
-      </c>
-      <c r="V18">
-        <v>0.05076142131979695</v>
-      </c>
-      <c r="W18">
-        <v>-0.6284403669724771</v>
-      </c>
-      <c r="X18">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="Y18">
-        <v>-0.6762025843090975</v>
-      </c>
-      <c r="Z18">
-        <v>0.01140684410646388</v>
-      </c>
-      <c r="AA18">
-        <v>-0.1036121673003802</v>
-      </c>
-      <c r="AB18">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1513743846370007</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>-0.04</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.053475935828877</v>
-      </c>
-      <c r="AK18">
-        <v>-0.02702702702702703</v>
-      </c>
-      <c r="AL18">
-        <v>0.026</v>
-      </c>
-      <c r="AM18">
-        <v>0.026</v>
-      </c>
-      <c r="AO18">
-        <v>-16.76923076923077</v>
-      </c>
-      <c r="AQ18">
-        <v>-16.76923076923077</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>VZ Holding AG (SWX:VZN)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>0.103</v>
-      </c>
-      <c r="E19">
-        <v>0.09230000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.4260296540362439</v>
-      </c>
-      <c r="H19">
-        <v>0.4260296540362439</v>
-      </c>
-      <c r="I19">
-        <v>0.4257915618462017</v>
-      </c>
-      <c r="J19">
-        <v>0.3511647033408068</v>
-      </c>
-      <c r="K19">
-        <v>100.6</v>
-      </c>
-      <c r="L19">
-        <v>0.3314662273476112</v>
-      </c>
-      <c r="M19">
-        <v>57.6</v>
-      </c>
-      <c r="N19">
-        <v>0.02365988909426987</v>
-      </c>
-      <c r="O19">
-        <v>0.5725646123260438</v>
-      </c>
-      <c r="P19">
-        <v>39.7</v>
-      </c>
-      <c r="Q19">
-        <v>0.01630724994865475</v>
-      </c>
-      <c r="R19">
-        <v>0.3946322067594434</v>
-      </c>
-      <c r="S19">
-        <v>17.9</v>
-      </c>
-      <c r="T19">
-        <v>0.3107638888888888</v>
-      </c>
-      <c r="U19">
-        <v>865.1</v>
-      </c>
-      <c r="V19">
-        <v>0.3553501745738345</v>
-      </c>
-      <c r="W19">
-        <v>0.2139060174356793</v>
-      </c>
-      <c r="X19">
-        <v>0.05145033075019438</v>
-      </c>
-      <c r="Y19">
-        <v>0.1624556866854849</v>
-      </c>
-      <c r="Z19">
-        <v>-2.77577850840409</v>
-      </c>
-      <c r="AA19">
-        <v>-0.9747554364435095</v>
-      </c>
-      <c r="AB19">
-        <v>0.04759662116537525</v>
-      </c>
-      <c r="AC19">
-        <v>-1.022352057608885</v>
-      </c>
-      <c r="AD19">
-        <v>354</v>
-      </c>
-      <c r="AE19">
-        <v>29.36130489838882</v>
-      </c>
-      <c r="AF19">
-        <v>383.3613048983888</v>
-      </c>
-      <c r="AG19">
-        <v>-481.7386951016112</v>
-      </c>
-      <c r="AH19">
-        <v>0.1360469034554604</v>
-      </c>
-      <c r="AI19">
-        <v>0.4226876084215507</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.2466961496488063</v>
-      </c>
-      <c r="AK19">
-        <v>-11.50797129403753</v>
-      </c>
-      <c r="AL19">
-        <v>5.47</v>
-      </c>
-      <c r="AM19">
-        <v>5.375</v>
-      </c>
-      <c r="AN19">
-        <v>2.508858965272856</v>
-      </c>
-      <c r="AO19">
-        <v>23.327239488117</v>
-      </c>
-      <c r="AP19">
-        <v>-3.414165096396961</v>
-      </c>
-      <c r="AQ19">
-        <v>23.73953488372093</v>
       </c>
     </row>
   </sheetData>
